--- a/lessonlink.xlsx
+++ b/lessonlink.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="291">
   <si>
     <t>grade</t>
   </si>
@@ -56,9 +56,6 @@
     <t>[이해]</t>
   </si>
   <si>
-    <t>[숙달]</t>
-  </si>
-  <si>
     <t>최대공약수와 최소공배수</t>
   </si>
   <si>
@@ -143,29 +140,764 @@
     <t>도수분포표에서의 평균</t>
   </si>
   <si>
+    <t>수와 연산(2)</t>
+  </si>
+  <si>
+    <t>[중2]</t>
+  </si>
+  <si>
+    <t>순환소수</t>
+  </si>
+  <si>
+    <t>유리수와 순환소수</t>
+  </si>
+  <si>
+    <t>문자와 식(2)</t>
+  </si>
+  <si>
+    <t>단항식의 계산</t>
+  </si>
+  <si>
+    <t>다항식의 계산</t>
+  </si>
+  <si>
+    <t>식의 대입</t>
+  </si>
+  <si>
+    <t>일차부등식</t>
+  </si>
+  <si>
+    <t>일차부등식의 활용</t>
+  </si>
+  <si>
+    <t>연립일차방정식</t>
+  </si>
+  <si>
+    <t>연립일차방정식의 활용</t>
+  </si>
+  <si>
+    <t>일차함수</t>
+  </si>
+  <si>
+    <t>함수</t>
+  </si>
+  <si>
+    <t>직선의 방정식과 일차함수</t>
+  </si>
+  <si>
+    <t>연립일차방정식과 그래프</t>
+  </si>
+  <si>
+    <t>도형(2)</t>
+  </si>
+  <si>
+    <t>이등변삼각형</t>
+  </si>
+  <si>
+    <t>삼각형의 외심과 내심</t>
+  </si>
+  <si>
+    <t>사각형</t>
+  </si>
+  <si>
+    <t>평행선과 넓이</t>
+  </si>
+  <si>
+    <t>닮음</t>
+  </si>
+  <si>
+    <t>평행선과 닮음</t>
+  </si>
+  <si>
+    <t>닮음의 활용</t>
+  </si>
+  <si>
+    <t>피타고라스의 정리</t>
+  </si>
+  <si>
+    <t>확률과 통계(2)</t>
+  </si>
+  <si>
+    <t>경우의 수</t>
+  </si>
+  <si>
+    <t>확률</t>
+  </si>
+  <si>
+    <t>수와 연산(3)</t>
+  </si>
+  <si>
+    <t>[중3]</t>
+  </si>
+  <si>
+    <t>제곱근</t>
+  </si>
+  <si>
+    <t>무리수와 실수</t>
+  </si>
+  <si>
+    <t>근호를 포함한 식의 계산</t>
+  </si>
+  <si>
+    <t>문자와 식(3)</t>
+  </si>
+  <si>
+    <t>다항식의 곱셈</t>
+  </si>
+  <si>
+    <t>인수분해</t>
+  </si>
+  <si>
+    <t>이차방정식</t>
+  </si>
+  <si>
+    <t>이차방정식의 근의 판별과 근과 계수의 관계</t>
+  </si>
+  <si>
+    <t>이차방정식의 활용</t>
+  </si>
+  <si>
+    <t>이차함수</t>
+  </si>
+  <si>
+    <t>이차함수의 그래프의 이해</t>
+  </si>
+  <si>
+    <t>이차함수의 최대, 최소</t>
+  </si>
+  <si>
+    <t>도형(3)</t>
+  </si>
+  <si>
+    <t>피타고라스의 정리의 활용</t>
+  </si>
+  <si>
+    <t>삼각비</t>
+  </si>
+  <si>
+    <t>삼각비의 활용</t>
+  </si>
+  <si>
+    <t>원과 직선</t>
+  </si>
+  <si>
+    <t>원주각</t>
+  </si>
+  <si>
+    <t>원과 비례</t>
+  </si>
+  <si>
+    <t>확률과 통계(3)</t>
+  </si>
+  <si>
+    <t>산포도</t>
+  </si>
+  <si>
+    <t>도수분포표에서의 분산</t>
+  </si>
+  <si>
+    <t>상자 그림</t>
+  </si>
+  <si>
+    <t>산점도</t>
+  </si>
+  <si>
+    <t>다항식</t>
+  </si>
+  <si>
+    <t>[고1] 공통수학1</t>
+  </si>
+  <si>
+    <t>다항식의 덧셈, 뺄셈</t>
+  </si>
+  <si>
+    <t>항등식</t>
+  </si>
+  <si>
+    <t>다항식의 나눗셈</t>
+  </si>
+  <si>
+    <t>조립제법과 나머지정리</t>
+  </si>
+  <si>
+    <t>복소수</t>
+  </si>
+  <si>
+    <t>허수단위와 음수의 제곱근</t>
+  </si>
+  <si>
+    <t>복소수와 그 연산</t>
+  </si>
+  <si>
+    <t>켤레복소수와 그 성질</t>
+  </si>
+  <si>
+    <t>방정식</t>
+  </si>
+  <si>
+    <t>이차방정식의 근의 판별</t>
+  </si>
+  <si>
+    <t>이차방정식의 근과 계수의 관계</t>
+  </si>
+  <si>
+    <t>이차방정식과 이차함수</t>
+  </si>
+  <si>
+    <t>삼차방정식과 사차방정식</t>
+  </si>
+  <si>
+    <t>삼차방정식의 근과 계수의 관계</t>
+  </si>
+  <si>
+    <t>연립방정식</t>
+  </si>
+  <si>
+    <t>부정방정식</t>
+  </si>
+  <si>
+    <t>부등식</t>
+  </si>
+  <si>
+    <t>이차부등식</t>
+  </si>
+  <si>
+    <t>연립부등식</t>
+  </si>
+  <si>
+    <t>경우의 수(1)</t>
+  </si>
+  <si>
+    <t>순열</t>
+  </si>
+  <si>
+    <t>조합</t>
+  </si>
+  <si>
+    <t>행렬</t>
+  </si>
+  <si>
+    <t>행렬의 덧셈, 뺼셈</t>
+  </si>
+  <si>
+    <t>행렬의 곱셈</t>
+  </si>
+  <si>
+    <t>역행렬</t>
+  </si>
+  <si>
+    <t>연립일차방정식과 행렬</t>
+  </si>
+  <si>
+    <t>도형의 방정식</t>
+  </si>
+  <si>
+    <t>[고1] 공통수학2</t>
+  </si>
+  <si>
+    <t>점과 좌표</t>
+  </si>
+  <si>
+    <t>직선의 방정식(1)</t>
+  </si>
+  <si>
+    <t>직선의 방정식(2)</t>
+  </si>
+  <si>
+    <t>원의 방정식</t>
+  </si>
+  <si>
+    <t>원과 직선의 위치 관계</t>
+  </si>
+  <si>
+    <t>두 원의 위치 관계</t>
+  </si>
+  <si>
+    <t>평행이동</t>
+  </si>
+  <si>
+    <t>대칭이동</t>
+  </si>
+  <si>
+    <t>부등식의 영역</t>
+  </si>
+  <si>
+    <t>집합</t>
+  </si>
+  <si>
+    <t>집합과 원소</t>
+  </si>
+  <si>
+    <t>부분집합</t>
+  </si>
+  <si>
+    <t>집합의 연산과 그 법칙</t>
+  </si>
+  <si>
+    <t>유한집합의 원소 개수</t>
+  </si>
+  <si>
+    <t>명제</t>
+  </si>
+  <si>
+    <t>명제와 조건</t>
+  </si>
+  <si>
+    <t>여러 가지 명제와 조건</t>
+  </si>
+  <si>
+    <t>가정과 결론으로 이루어진 명제</t>
+  </si>
+  <si>
+    <t>명제의 증명</t>
+  </si>
+  <si>
+    <t>부등식의 증명</t>
+  </si>
+  <si>
+    <t>방정식, 부등식과 함수</t>
+  </si>
+  <si>
+    <t>합성함수</t>
+  </si>
+  <si>
+    <t>역함수</t>
+  </si>
+  <si>
+    <t>여러 가지 함수의 그래프</t>
+  </si>
+  <si>
+    <t>유리함수와 무리함수</t>
+  </si>
+  <si>
+    <t>유리식</t>
+  </si>
+  <si>
+    <t>유리함수</t>
+  </si>
+  <si>
+    <t>무리식</t>
+  </si>
+  <si>
+    <t>무리함수</t>
+  </si>
+  <si>
+    <t>지수와 로그</t>
+  </si>
+  <si>
+    <t>[고2] 대수</t>
+  </si>
+  <si>
+    <t>지수법칙(1)</t>
+  </si>
+  <si>
+    <t>지수법칙(2)</t>
+  </si>
+  <si>
+    <t>거듭제곱근</t>
+  </si>
+  <si>
+    <t>지수법칙(3)</t>
+  </si>
+  <si>
+    <t>로그</t>
+  </si>
+  <si>
+    <t>로그의 성질</t>
+  </si>
+  <si>
+    <t>상용로그</t>
+  </si>
+  <si>
+    <t>지수함수와 로그함수</t>
+  </si>
+  <si>
+    <t>지수함수</t>
+  </si>
+  <si>
+    <t>로그함수</t>
+  </si>
+  <si>
+    <t>지수, 로그 방정식과 부등식</t>
+  </si>
+  <si>
+    <t>삼각함수(1)</t>
+  </si>
+  <si>
+    <t>일반각과 호도법</t>
+  </si>
+  <si>
+    <t>삼각함수</t>
+  </si>
+  <si>
+    <t>삼각함수의 그래프</t>
+  </si>
+  <si>
+    <t>삼각 방정식과 부등식</t>
+  </si>
+  <si>
+    <t>삼각형에의 응용</t>
+  </si>
+  <si>
+    <t>수열</t>
+  </si>
+  <si>
+    <t>수열의 일반항과 합</t>
+  </si>
+  <si>
+    <t>등차수열</t>
+  </si>
+  <si>
+    <t>등비수열</t>
+  </si>
+  <si>
+    <t>여러 가지 수열</t>
+  </si>
+  <si>
+    <t>시그마</t>
+  </si>
+  <si>
+    <t>여러 가지 수열의 합</t>
+  </si>
+  <si>
+    <t>수학적 귀납법</t>
+  </si>
+  <si>
+    <t>수열의 귀납적 정의</t>
+  </si>
+  <si>
+    <t>함수의 극한(1)</t>
+  </si>
+  <si>
+    <t>[고2] 미적분1</t>
+  </si>
+  <si>
+    <t>함수의 극한</t>
+  </si>
+  <si>
+    <t>함수의 극한 계산</t>
+  </si>
+  <si>
+    <t>함수의 연속</t>
+  </si>
+  <si>
+    <t>연속함수의 성질</t>
+  </si>
+  <si>
+    <t>연속함수의 응용</t>
+  </si>
+  <si>
+    <t>미분계수와 도함수(1)</t>
+  </si>
+  <si>
+    <t>미분계수</t>
+  </si>
+  <si>
+    <t>미분가능</t>
+  </si>
+  <si>
+    <t>도함수와 미분법(1)</t>
+  </si>
+  <si>
+    <t>도함수의 활용(1)</t>
+  </si>
+  <si>
+    <t>접선의 방정식</t>
+  </si>
+  <si>
+    <t>롤의 정리와 평균값 정리</t>
+  </si>
+  <si>
+    <t>증가, 감소와 미분</t>
+  </si>
+  <si>
+    <t>극대, 극소와 미분</t>
+  </si>
+  <si>
+    <t>최대, 최소와 미분</t>
+  </si>
+  <si>
+    <t>방정식, 부등식과 미분</t>
+  </si>
+  <si>
+    <t>속도와 가속도</t>
+  </si>
+  <si>
+    <t>부정적분과 정적분(1)</t>
+  </si>
+  <si>
+    <t>부정적분</t>
+  </si>
+  <si>
+    <t>정적분</t>
+  </si>
+  <si>
+    <t>여러 가지 함수의 정적분</t>
+  </si>
+  <si>
+    <t>정적분의 활용(1)</t>
+  </si>
+  <si>
+    <t>넓이</t>
+  </si>
+  <si>
+    <t>속도와 거리</t>
+  </si>
+  <si>
+    <t>경우의 수(2)</t>
+  </si>
+  <si>
+    <t>[고2] 확률과 통계</t>
+  </si>
+  <si>
+    <t>중복순열과 중복조합</t>
+  </si>
+  <si>
+    <t>같은 것이 있는 순열</t>
+  </si>
+  <si>
+    <t>이항정리</t>
+  </si>
+  <si>
+    <t>수학적 확률과 통계적 확률</t>
+  </si>
+  <si>
+    <t>확률의 성질</t>
+  </si>
+  <si>
+    <t>배반과 독립</t>
+  </si>
+  <si>
+    <t>독립시행</t>
+  </si>
+  <si>
+    <t>확률분포</t>
+  </si>
+  <si>
+    <t>이산확률분포</t>
+  </si>
+  <si>
+    <t>이항분포</t>
+  </si>
+  <si>
+    <t>연속확률분포</t>
+  </si>
+  <si>
+    <t>정규분포</t>
+  </si>
+  <si>
+    <t>통계적 추정</t>
+  </si>
+  <si>
+    <t>표본평균의 분포</t>
+  </si>
+  <si>
+    <t>모평균의 추정</t>
+  </si>
+  <si>
+    <t>표본비율의 분포</t>
+  </si>
+  <si>
+    <t>모비율의 추정</t>
+  </si>
+  <si>
+    <t>수열의 극한</t>
+  </si>
+  <si>
+    <t>[고3] 미적분2</t>
+  </si>
+  <si>
+    <t>수열의 극한 계산</t>
+  </si>
+  <si>
+    <t>등비수열의 극한</t>
+  </si>
+  <si>
+    <t>급수</t>
+  </si>
+  <si>
+    <t>등비급수</t>
+  </si>
+  <si>
+    <t>삼각함수(2)</t>
+  </si>
+  <si>
+    <t>cscθ, secθ, cotθ</t>
+  </si>
+  <si>
+    <t>삼각함수의 덧셈정리</t>
+  </si>
+  <si>
+    <t>배각, 반각 공식</t>
+  </si>
+  <si>
+    <t>삼각함수의 합성</t>
+  </si>
+  <si>
+    <t>함수의 극한(2)</t>
+  </si>
+  <si>
+    <t>지수, 로그, 삼각함수의 극한(1)</t>
+  </si>
+  <si>
+    <t>자연로그</t>
+  </si>
+  <si>
+    <t>지수, 로그, 삼각함수의 극한(2)</t>
+  </si>
+  <si>
+    <t>미분계수와 도함수(2)</t>
+  </si>
+  <si>
+    <t>지수, 로그, 삼각함수의 도함수</t>
+  </si>
+  <si>
+    <t>미분법(2)</t>
+  </si>
+  <si>
+    <t>도함수의 활용(2)</t>
+  </si>
+  <si>
+    <t>증가, 감소, 극대, 극소와 미분</t>
+  </si>
+  <si>
+    <t>오목, 볼록과 미분</t>
+  </si>
+  <si>
+    <t>부정적분과 정적분(2)</t>
+  </si>
+  <si>
+    <t>적분법(2)</t>
+  </si>
+  <si>
+    <t>구분구적법</t>
+  </si>
+  <si>
+    <t>정적분과 급수</t>
+  </si>
+  <si>
+    <t>정적분의 활용(2)</t>
+  </si>
+  <si>
+    <t>부피</t>
+  </si>
+  <si>
+    <t>이차곡선</t>
+  </si>
+  <si>
+    <t>[고3] 기하</t>
+  </si>
+  <si>
+    <t>포물선</t>
+  </si>
+  <si>
+    <t>타원</t>
+  </si>
+  <si>
+    <t>쌍곡선</t>
+  </si>
+  <si>
+    <t>이차곡선과 직선</t>
+  </si>
+  <si>
+    <t>원뿔곡선</t>
+  </si>
+  <si>
+    <t>공간도형과 공간좌표</t>
+  </si>
+  <si>
+    <t>직선과 평면의 위치 관계</t>
+  </si>
+  <si>
+    <t>직선과 평면이 이루는 각</t>
+  </si>
+  <si>
+    <t>정사영</t>
+  </si>
+  <si>
+    <t>공간좌표</t>
+  </si>
+  <si>
+    <t>구의 방정식</t>
+  </si>
+  <si>
+    <t>벡터</t>
+  </si>
+  <si>
+    <t>벡터와 그 연산</t>
+  </si>
+  <si>
+    <t>위치벡터</t>
+  </si>
+  <si>
+    <t>벡터의 성분</t>
+  </si>
+  <si>
+    <t>벡터의 내적</t>
+  </si>
+  <si>
+    <t>평면의 방정식</t>
+  </si>
+  <si>
     <t>[실전]</t>
   </si>
   <si>
-    <t>중1</t>
-  </si>
-  <si>
-    <t>1학기 1차 지필평가</t>
+    <t>모의고사</t>
+  </si>
+  <si>
+    <t>중1 1학기 1차 지필평가</t>
+  </si>
+  <si>
+    <t>1회</t>
+  </si>
+  <si>
+    <t>중2 1학기 1차 지필평가</t>
+  </si>
+  <si>
+    <t>중3 1학기 1차 지필평가</t>
+  </si>
+  <si>
+    <t>고1 1학기 1차 지필평가</t>
+  </si>
+  <si>
+    <t>고2 1학기 1차 지필평가</t>
+  </si>
+  <si>
+    <t>고3 1학기 1차 지필평가</t>
   </si>
   <si>
     <t>[Tip]</t>
   </si>
   <si>
-    <t xml:space="preserve">공부법 </t>
-  </si>
-  <si>
-    <t>내신공부법</t>
+    <t xml:space="preserve">정수학  </t>
+  </si>
+  <si>
+    <t>사이트 이용</t>
+  </si>
+  <si>
+    <t>강의검색 키워드은 이렇게...</t>
+  </si>
+  <si>
+    <t>공부법</t>
+  </si>
+  <si>
+    <t>인강</t>
+  </si>
+  <si>
+    <t>인강으로 학습할 때는 이렇게...</t>
+  </si>
+  <si>
+    <t>현강</t>
+  </si>
+  <si>
+    <t>현강으로 학습할 떄는 이렇게...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -174,6 +906,12 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -192,11 +930,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -478,7 +1219,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -507,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +1259,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +1273,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -540,7 +1287,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -551,7 +1301,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -562,15 +1315,15 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -589,10 +1345,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -611,15 +1373,18 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +1392,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -638,10 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -649,15 +1420,18 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -665,10 +1439,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -676,10 +1453,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -687,10 +1467,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -698,10 +1481,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -709,10 +1495,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -720,10 +1509,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -731,15 +1523,18 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -747,10 +1542,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -758,10 +1556,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -769,10 +1570,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -780,10 +1584,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -800,6 +1607,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -825,6 +1635,353 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -841,6 +1998,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="32.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -866,6 +2026,339 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +2375,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.5"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="25.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -907,6 +2405,859 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -923,6 +3274,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.25"/>
+    <col customWidth="1" min="2" max="2" width="21.13"/>
+    <col customWidth="1" min="3" max="3" width="25.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -948,6 +3304,884 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -964,6 +4198,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="23.25"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -989,6 +4227,777 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1007,8 +5016,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="13.38"/>
-    <col customWidth="1" min="3" max="3" width="17.75"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
+    <col customWidth="1" min="3" max="3" width="19.63"/>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1039,13 +5048,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>275</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1062,6 +5144,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.88"/>
+    <col customWidth="1" min="3" max="3" width="20.38"/>
+    <col customWidth="1" min="4" max="4" width="35.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1091,13 +5178,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>284</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
